--- a/AP_Sprin0_PJ/Vd3_Fremdriftsplan_v1_gr21.xlsx
+++ b/AP_Sprin0_PJ/Vd3_Fremdriftsplan_v1_gr21.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Januar</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Oppsett av verktøy</t>
   </si>
   <si>
-    <t>Utvikling av CMS</t>
-  </si>
-  <si>
     <t>Starte utvikling av tidslinje</t>
   </si>
   <si>
@@ -111,24 +108,15 @@
     <t>Utarbeide 1. utkast av rapport</t>
   </si>
   <si>
-    <t>Utvikling av tidslinje</t>
-  </si>
-  <si>
     <t>Utarbeide brukerveiledning</t>
   </si>
   <si>
     <t>Fremdriftsplan v 1.0</t>
   </si>
   <si>
-    <t>Brukertesting</t>
-  </si>
-  <si>
     <t>Akseptansetest</t>
   </si>
   <si>
-    <t>Usability</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kundemøte </t>
   </si>
   <si>
@@ -157,13 +145,25 @@
   </si>
   <si>
     <t>Use case</t>
+  </si>
+  <si>
+    <t>Analyse og rapportering</t>
+  </si>
+  <si>
+    <t>Kartlegge brukertesting</t>
+  </si>
+  <si>
+    <t>Revidere EAR-digram</t>
+  </si>
+  <si>
+    <t>sammenkobling av produktet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +229,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -382,7 +389,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,8 +403,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -408,9 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -438,65 +456,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="27">
     <cellStyle name="Fulgt hyperkobling" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,33 +874,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:I26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="28">
-      <c r="A2" s="11" t="s">
-        <v>32</v>
+      <c r="A2" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="17" customHeight="1">
+    <row r="4" spans="1:16" ht="28" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="10">
+      <c r="B4" s="42">
         <v>41281</v>
       </c>
-      <c r="P4" s="8">
-        <v>41414</v>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44">
+        <v>41415</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -862,28 +932,28 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="19">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="3"/>
@@ -906,42 +976,42 @@
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="7"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="35" t="s">
         <v>9</v>
       </c>
@@ -956,491 +1026,505 @@
         <v>11</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26" t="s">
+      <c r="D10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26" t="s">
+      <c r="H10" s="29"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="27"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="38" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="B12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="26" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28" t="s">
+      <c r="N12" s="26"/>
+      <c r="O12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="27"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" ht="16" customHeight="1">
       <c r="B14" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="26" t="s">
+      <c r="K14" s="29"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28" t="s">
+      <c r="N14" s="26"/>
+      <c r="O14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="27"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1">
       <c r="B16" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="27"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
     </row>
     <row r="18" spans="2:16" ht="30" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="27"/>
+      <c r="D18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1">
       <c r="B20" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="32"/>
-      <c r="D20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26" t="s">
+      <c r="D20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="32"/>
-      <c r="D22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
+      <c r="D22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="32"/>
-      <c r="D24" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
+      <c r="D24" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="26"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
     </row>
     <row r="26" spans="2:16" ht="29" customHeight="1">
       <c r="B26" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="34"/>
-      <c r="D26" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
+      <c r="D26" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="26"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="25"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="24"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="41"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L31"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G30:I31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="B10:C10"/>
@@ -1455,38 +1539,30 @@
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L31"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
